--- a/filer/diagram-mall.xlsx
+++ b/filer/diagram-mall.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16828"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4710" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Stapeldiagram" sheetId="3" r:id="rId1"/>
+    <sheet name="Stapeldiagram 3 variabler" sheetId="3" r:id="rId1"/>
     <sheet name="Liggande stapeldiagram Likert" sheetId="4" r:id="rId2"/>
     <sheet name="Linjediagram tidsserie" sheetId="1" r:id="rId3"/>
+    <sheet name="Linjediagram 3 variabler" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>År</t>
   </si>
@@ -75,6 +76,18 @@
   </si>
   <si>
     <t>Bra idé</t>
+  </si>
+  <si>
+    <t>Låg utbildning</t>
+  </si>
+  <si>
+    <t>Hög utbildning</t>
+  </si>
+  <si>
+    <t>Lite tidningsläsning</t>
+  </si>
+  <si>
+    <t>Hög tidningsläsning</t>
   </si>
 </sst>
 </file>
@@ -245,7 +258,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$B$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +335,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -339,7 +352,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$B$2:$B$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -366,7 +379,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$C$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -443,7 +456,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -460,7 +473,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$C$2:$C$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -487,7 +500,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$D$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -564,7 +577,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -581,7 +594,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$D$2:$D$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -919,7 +932,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$2</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -996,7 +1009,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1013,7 +1026,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$B$2:$D$2</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1040,7 +1053,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$3</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,7 +1131,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1135,7 +1148,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$B$3:$D$3</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1162,7 +1175,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Stapeldiagram!$A$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1239,7 +1252,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Stapeldiagram!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1256,7 +1269,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stapeldiagram!$B$4:$D$4</c:f>
+              <c:f>'Stapeldiagram 3 variabler'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4003,6 +4016,584 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="sv-SE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1"/>
+              <a:t>Personer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="sv-SE" b="1" baseline="0"/>
+              <a:t> med hög politisk kunskap</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr algn="l">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="sv-SE" sz="1000" baseline="0"/>
+              <a:t>Procent</a:t>
+            </a:r>
+            <a:endParaRPr lang="sv-SE" sz="1000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="1.6812335958005225E-2"/>
+          <c:y val="2.3148148148148147E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="sv-SE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="8.1856805873949307E-2"/>
+          <c:y val="0.2949074074074074"/>
+          <c:w val="0.70548496627794943"/>
+          <c:h val="0.60333333333333339"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linjediagram 3 variabler'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lite tidningsläsning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-DE08-4B92-A43E-98D3D6E6C04B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.33827914548656102"/>
+                      <c:h val="0.10967592592592593"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-DE08-4B92-A43E-98D3D6E6C04B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linjediagram 3 variabler'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Låg utbildning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hög utbildning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linjediagram 3 variabler'!$B$2:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DE08-4B92-A43E-98D3D6E6C04B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Linjediagram 3 variabler'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hög tidningsläsning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:delete val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-DE08-4B92-A43E-98D3D6E6C04B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr algn="l">
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="75000"/>
+                          <a:lumOff val="25000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="sv-SE"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.35621940928270041"/>
+                      <c:h val="0.15293999708369788"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-DE08-4B92-A43E-98D3D6E6C04B}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="l">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="sv-SE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Linjediagram 3 variabler'!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Låg utbildning</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hög utbildning</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Linjediagram 3 variabler'!$C$2:$C$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DE08-4B92-A43E-98D3D6E6C04B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="329150608"/>
+        <c:axId val="329141040"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="329150608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329141040"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="329141040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="sv-SE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329150608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="10"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="sv-SE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4203,6 +4794,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6220,6 +6851,522 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6900,6 +8047,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
@@ -7200,7 +8382,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D4" sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7279,11 +8461,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="23.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.25" customWidth="1"/>
+    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7736,4 +8918,59 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>33</v>
+      </c>
+      <c r="C3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/filer/diagram-mall.xlsx
+++ b/filer/diagram-mall.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="7500" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Stapeldiagram 3 variabler" sheetId="3" r:id="rId1"/>
+    <sheet name="Stapeldiagram 2 variabler" sheetId="3" r:id="rId1"/>
     <sheet name="Liggande stapeldiagram Likert" sheetId="4" r:id="rId2"/>
     <sheet name="Linjediagram tidsserie" sheetId="1" r:id="rId3"/>
     <sheet name="Linjediagram 3 variabler" sheetId="5" r:id="rId4"/>
@@ -87,7 +87,7 @@
     <t>Lite tidningsläsning</t>
   </si>
   <si>
-    <t>Hög tidningsläsning</t>
+    <t>Mycket tidningsläsning</t>
   </si>
 </sst>
 </file>
@@ -131,9 +131,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -258,7 +264,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,7 +341,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -352,7 +358,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$2:$B$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -379,7 +385,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$C$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -456,7 +462,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -473,7 +479,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$C$2:$C$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -500,7 +506,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$D$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -577,7 +583,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$2:$A$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -594,7 +600,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$D$2:$D$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$D$2:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -932,7 +938,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$2</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1009,7 +1015,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1026,7 +1032,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$2:$D$2</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1053,7 +1059,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$3</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1131,7 +1137,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1148,7 +1154,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$3:$D$3</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1175,7 +1181,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$A$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1252,7 +1258,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$1:$D$1</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$1:$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1269,7 +1275,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Stapeldiagram 3 variabler'!$B$4:$D$4</c:f>
+              <c:f>'Stapeldiagram 2 variabler'!$B$4:$D$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4060,7 +4066,17 @@
           </a:p>
           <a:p>
             <a:pPr algn="l">
-              <a:defRPr/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
             </a:pPr>
             <a:r>
               <a:rPr lang="sv-SE" sz="1000" baseline="0"/>
@@ -4086,26 +4102,6 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="sv-SE"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -4157,28 +4153,6 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-DE08-4B92-A43E-98D3D6E6C04B}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.33827914548656102"/>
-                      <c:h val="0.10967592592592593"/>
-                    </c:manualLayout>
-                  </c15:layout>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-DE08-4B92-A43E-98D3D6E6C04B}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -4269,7 +4243,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Hög tidningsläsning</c:v>
+                  <c:v>Mycket tidningsläsning</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4336,12 +4310,11 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout>
-                    <c:manualLayout>
-                      <c:w val="0.35621940928270041"/>
-                      <c:h val="0.15293999708369788"/>
-                    </c:manualLayout>
-                  </c15:layout>
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                  </c15:spPr>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-DE08-4B92-A43E-98D3D6E6C04B}"/>
@@ -4794,46 +4767,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -6851,522 +6784,6 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8051,16 +7468,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8381,8 +7798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="A1:D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8392,13 +7809,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -8406,13 +7823,13 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>35</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>28</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>37</v>
       </c>
     </row>
@@ -8420,13 +7837,13 @@
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>44</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>32</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>24</v>
       </c>
     </row>
@@ -8434,13 +7851,13 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>55</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
     </row>
@@ -8456,33 +7873,34 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="23.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.25" customWidth="1"/>
-    <col min="6" max="6" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" customWidth="1"/>
+    <col min="5" max="5" width="8" customWidth="1"/>
+    <col min="6" max="6" width="12.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>11</v>
       </c>
     </row>
@@ -8490,19 +7908,19 @@
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>21</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>32</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8510,19 +7928,19 @@
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>30</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>50</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>10</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>5</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>5</v>
       </c>
     </row>
@@ -8530,19 +7948,19 @@
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>33</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>45</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>10</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="3">
         <v>7</v>
       </c>
     </row>
@@ -8550,19 +7968,19 @@
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>35</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>18</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>26</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8570,31 +7988,31 @@
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>40</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>35</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>10</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="3">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E24" s="1"/>
@@ -8603,13 +8021,13 @@
       <c r="A25" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>53</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>23</v>
       </c>
     </row>
@@ -8617,13 +8035,13 @@
       <c r="A26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>53</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>26</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>21</v>
       </c>
     </row>
@@ -8631,13 +8049,13 @@
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>75</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>15</v>
       </c>
     </row>
@@ -8645,13 +8063,13 @@
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>78</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="3">
         <v>10</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>12</v>
       </c>
     </row>
@@ -8659,13 +8077,13 @@
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>80</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="3">
         <v>10</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="3">
         <v>10</v>
       </c>
     </row>
@@ -8684,232 +8102,232 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1990</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>1991</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>1992</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>1993</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="3">
         <v>1994</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>1995</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="3">
         <v>1996</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="3">
         <v>1997</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="3">
         <v>1998</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="3">
         <v>1999</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="3">
         <v>2000</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="3">
         <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="3">
         <v>2001</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="3">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="3">
         <v>2002</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="3">
         <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="3">
         <v>2003</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="3">
         <v>2004</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="3">
         <v>2005</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>2006</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="3">
         <v>2007</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="3">
         <v>2008</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="3">
         <v>2009</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="3">
         <v>2010</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="3">
         <v>2011</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="3">
         <v>2012</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="3">
         <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="3">
         <v>2013</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="3">
         <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="3">
         <v>2014</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="3">
         <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="3">
         <v>2015</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="3">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="3">
         <v>2016</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="3">
         <v>66</v>
       </c>
     </row>
@@ -8924,23 +8342,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
@@ -8948,10 +8366,10 @@
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="3">
         <v>44</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>24</v>
       </c>
     </row>
@@ -8959,10 +8377,10 @@
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>33</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>47</v>
       </c>
     </row>
